--- a/easy-trade/easy-settle/src/main/webapp/excel/DivideAccount.xlsx
+++ b/easy-trade/easy-settle/src/main/webapp/excel/DivideAccount.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>商场名称</t>
+  </si>
+  <si>
+    <t>店铺ID</t>
   </si>
   <si>
     <t>店铺名称</t>
@@ -61,6 +64,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -88,13 +98,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -218,7 +221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,12 +412,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,28 +538,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,13 +568,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,7 +583,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,40 +592,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,22 +634,22 @@
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,16 +658,16 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,21 +676,24 @@
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,43 +1040,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="1" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/easy-trade/easy-settle/src/main/webapp/excel/DivideAccount.xlsx
+++ b/easy-trade/easy-settle/src/main/webapp/excel/DivideAccount.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\bugfix\easy-trade\easy-trade\easy-settle\src\main\webapp\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\chenjun\easy-trade\easy-trade\easy-settle\src\main\webapp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>商场名称</t>
   </si>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>实际收入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>使用抵扣券（商家补贴）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -61,6 +57,38 @@
   </si>
   <si>
     <t>满减活动（商家补贴）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分抵扣（商场补贴）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退运费金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减活动退回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵扣券退回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包退回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分退回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际收入（含运费）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -467,12 +495,15 @@
     <col min="5" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
     <col min="10" max="10" width="20.875" customWidth="1"/>
-    <col min="11" max="12" width="21.75" customWidth="1"/>
+    <col min="11" max="16" width="21.75" customWidth="1"/>
+    <col min="17" max="17" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="14.375" customWidth="1"/>
+    <col min="19" max="19" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -498,16 +529,37 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/easy-trade/easy-settle/src/main/webapp/excel/DivideAccount.xlsx
+++ b/easy-trade/easy-settle/src/main/webapp/excel/DivideAccount.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\chenjun\easy-trade\easy-trade\easy-settle\src\main\webapp\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
@@ -16,8 +11,214 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Despeny</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>说明</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>结算金额</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实际收入</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>所有商家补贴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>所有补贴退回</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>说明</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实际收入</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>客户实际支付金额</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>退款金额</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">退运费金额
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -95,8 +296,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +315,42 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -161,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +412,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,14 +720,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
@@ -503,7 +743,7 @@
     <col min="19" max="19" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,7 +765,7 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -565,17 +805,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -584,12 +825,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
